--- a/Diagramme de Gantt du suivi des dates.xlsx
+++ b/Diagramme de Gantt du suivi des dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\BUT\SD\Promo 2023\lcorompt\Projets_Java\Projet_money_drop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcorompt\Documents\Money_Drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{436163E6-8244-4BEB-9B90-FEAA5EA0AD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B8B65E-0896-4675-8C9F-C99BB51DF091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{568C94E4-E3F7-4EB4-8281-4914A18C47B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{568C94E4-E3F7-4EB4-8281-4914A18C47B4}"/>
   </bookViews>
   <sheets>
     <sheet name="À propos" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>À propos de ce classeur</t>
   </si>
@@ -194,24 +194,6 @@
     <t>Jalon</t>
   </si>
   <si>
-    <t>Jalon 1</t>
-  </si>
-  <si>
-    <t>Jalon 2</t>
-  </si>
-  <si>
-    <t>Jalon 3</t>
-  </si>
-  <si>
-    <t>Jalon 4</t>
-  </si>
-  <si>
-    <t>Jalon 5</t>
-  </si>
-  <si>
-    <t>Jalon 6</t>
-  </si>
-  <si>
     <t>Créez un diagramme de Gantt Suivi de date dans cette feuille de calcul.
 Le titre de cette feuille de calcul figure dans la cellule B1. 
 Des informations sur l’utilisation de cette feuille de calcul, notamment des instructions pour les lecteurs d’écran, figurent dans la feuille de calcul À propos de.
@@ -240,42 +222,6 @@
   </si>
   <si>
     <t>Tâche</t>
-  </si>
-  <si>
-    <t>Activité 1</t>
-  </si>
-  <si>
-    <t>Activité 2</t>
-  </si>
-  <si>
-    <t>Activité 3</t>
-  </si>
-  <si>
-    <t>Activité 4</t>
-  </si>
-  <si>
-    <t>Activité 5</t>
-  </si>
-  <si>
-    <t>Activité 6</t>
-  </si>
-  <si>
-    <t>Activité 7</t>
-  </si>
-  <si>
-    <t>Activité 8</t>
-  </si>
-  <si>
-    <t>Activité 9</t>
-  </si>
-  <si>
-    <t>Activité 10</t>
-  </si>
-  <si>
-    <t>Activité 11</t>
-  </si>
-  <si>
-    <t>Activité 12</t>
   </si>
   <si>
     <t>Colonne calculée automatiquement utilisée pour tracer la durée de chaque tâche. Ne la supprimez ou modifiez pas.</t>
@@ -376,6 +322,36 @@
   <si>
     <t xml:space="preserve">&lt;--Pour tracer plus de 15 jalons, étendez simplement ce tableau, puis tapez de nouvelles entrées dans le tableau de jalons de la feuille de calcul Données du diagramme.
 </t>
+  </si>
+  <si>
+    <t>Rendu final</t>
+  </si>
+  <si>
+    <t>Création Groupe + Projet</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <t>Cahier des charges</t>
+  </si>
+  <si>
+    <t>Code de la première fenêtre</t>
+  </si>
+  <si>
+    <t>Code Questionnaire</t>
+  </si>
+  <si>
+    <t>Ajout de la gestion XML</t>
+  </si>
+  <si>
+    <t>Résolution des détails du code</t>
+  </si>
+  <si>
+    <t>Création en application</t>
+  </si>
+  <si>
+    <t>Tests/finalisation + documents annexes</t>
   </si>
 </sst>
 </file>
@@ -554,13 +530,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -575,6 +551,13 @@
     <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -636,13 +619,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -963,7 +939,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4603957341724744E-2"/>
+          <c:y val="2.3903434641233914E-2"/>
+          <c:w val="0.88574363948609203"/>
+          <c:h val="0.85021091487290523"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1029,7 +1015,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2870A832-30A3-4896-A13A-2887EBFB6394}" type="CELLRANGE">
+                    <a:fld id="{9ED376D0-1A9C-470C-9485-211D39157E0B}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1063,7 +1049,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00B8D08F-1B8E-473A-966A-639BD05BE0CF}" type="CELLRANGE">
+                    <a:fld id="{299DC3F8-5E2D-4545-96A2-00F0B50F5817}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1097,7 +1083,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EB9251C-CAC3-4383-8263-EE8A42897427}" type="CELLRANGE">
+                    <a:fld id="{73996172-923E-4249-A64D-BD6BC487D34F}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1131,7 +1117,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A1243B9-9CEC-4433-8E1C-59AA32733B8D}" type="CELLRANGE">
+                    <a:fld id="{AAEF683E-AEA7-4A1E-AE06-06B4C8BA0BF6}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1165,7 +1151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CC3DB0B-2309-420C-8BA4-281DEB3B68F5}" type="CELLRANGE">
+                    <a:fld id="{316680D2-E29B-4334-884E-DB3BD32A9A94}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1199,7 +1185,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16223EAD-0850-4269-A8C6-47B3B457D432}" type="CELLRANGE">
+                    <a:fld id="{723B74F0-7CCC-400D-9214-E526B114AFDF}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1285,22 +1271,22 @@
                     <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1</c:v>
+                    <c:v>7</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1</c:v>
+                    <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>-45670</c:v>
+                    <c:v>13</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4</c:v>
+                    <c:v>5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1344,16 +1330,16 @@
                   <c:v>45670</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45663</c:v>
+                  <c:v>45673</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45671</c:v>
+                  <c:v>45688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45675</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45678</c:v>
+                  <c:v>45663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,7 +1369,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1396,25 +1382,22 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>Activité 1</c:v>
+                    <c:v>Création Groupe + Projet</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Activité 2</c:v>
+                    <c:v>UML</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Activité 3</c:v>
+                    <c:v>Cahier des charges</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Activité 4</c:v>
+                    <c:v>Code de la première fenêtre</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Activité 5</c:v>
+                    <c:v>Code Questionnaire</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Activité 6</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Activité 7</c:v>
+                    <c:v>Ajout de la gestion XML</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1630,10 +1613,10 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>45663</c:v>
+                  <c:v>45678</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45663</c:v>
+                  <c:v>45678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,7 +1719,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{BB3BA0FE-BBD9-462C-9069-F670F861306C}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1754,7 +1737,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1770,7 +1752,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{7BB4A456-FA04-427F-B5F3-C79903D02E0B}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1788,7 +1770,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1804,7 +1785,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{B0ECF07F-AFD0-4D4E-9CCD-B0D456DB0A8A}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1822,7 +1803,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1838,7 +1818,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{BF4A4ECF-1CA3-413B-9784-D442032DFAC8}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1856,7 +1836,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1872,7 +1851,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{524B30F9-7487-4F3B-A361-193948AA43AF}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1890,7 +1869,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1906,7 +1884,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{9A90FFFB-32D8-46FC-8EC1-8DBBD52E2F9C}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1924,7 +1902,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1940,7 +1917,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{B6988690-B895-4BBD-AB72-1950A2B768D5}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1958,7 +1935,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1974,7 +1950,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{E933848D-12F0-4E85-9495-FC53332CB1C8}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1992,7 +1968,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2008,7 +1983,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{0FDCDD30-2790-4A8A-93BD-30509354D4D4}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -2026,7 +2001,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2042,7 +2016,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{8B41ACA2-4E99-48C7-96C2-5D85143DC329}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -2060,7 +2034,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2076,7 +2049,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{0FC8F4C6-D523-45FB-BF1B-43182D413105}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -2094,7 +2067,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2110,7 +2082,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{4DDA13AD-FE39-4D8C-A878-6A050033EED7}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -2128,7 +2100,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2144,7 +2115,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{27F0E0FC-1E33-43E8-9C8C-9724E3296C53}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -2162,7 +2133,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2178,7 +2148,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{6FF4A48B-81B1-46E5-9426-FBCE4E421238}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -2196,7 +2166,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2279,7 +2248,7 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>45673</c:v>
+                  <c:v>45678</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>45678</c:v>
@@ -2333,7 +2302,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2387,9 +2356,6 @@
                 <c15:f>'Données dynamiques masquées'!$G$18:$G$33</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="16"/>
-                  <c:pt idx="0">
-                    <c:v>Jalon 1</c:v>
-                  </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
             </c:ext>
@@ -3086,16 +3052,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>295276</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2019300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3152,10 +3118,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02DCCC90-6A03-4F39-A9BB-582A9958C0EF}" name="Tâches" displayName="Tâches" ref="B5:F25">
-  <autoFilter ref="B5:F25" xr:uid="{22AFF5BD-21AE-4912-A8C2-DAA508F7F469}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:E25">
-    <sortCondition ref="C5:C25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02DCCC90-6A03-4F39-A9BB-582A9958C0EF}" name="Tâches" displayName="Tâches" ref="B5:F23">
+  <autoFilter ref="B5:F23" xr:uid="{22AFF5BD-21AE-4912-A8C2-DAA508F7F469}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:E23">
+    <sortCondition ref="C5:C23"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="4" xr3:uid="{8D50EF12-D72C-4368-8326-03E797ADB3CB}" name="N°" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21"/>
@@ -3179,16 +3145,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{74A625E2-A69E-4395-831A-7686CCC538CA}" name="Tâches" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{74A625E2-A69E-4395-831A-7686CCC538CA}" name="Tâches" dataDxfId="14">
       <calculatedColumnFormula>IFERROR(IF(LEN(OFFSET(Tâches!$C6,ScrollingIncrement[incrément de défilement],0,1,1))=0,"",IF(OR(OFFSET(Tâches!$D6,ScrollingIncrement[incrément de défilement],0,1,1)&lt;=$B$12,OFFSET(Tâches!$C6,ScrollingIncrement[incrément de défilement],0,1,1)&gt;=($B$11-$D$11)),INDEX(Tâches[],OFFSET(Tâches!$B6,ScrollingIncrement[incrément de défilement],0,1,1),4),"")),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{67A68433-98C6-4D8B-B13E-5A174B091BFD}" name="Date de début" dataDxfId="12" dataCellStyle="Date">
+    <tableColumn id="2" xr3:uid="{67A68433-98C6-4D8B-B13E-5A174B091BFD}" name="Date de début" dataDxfId="13" dataCellStyle="Date">
       <calculatedColumnFormula>IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,$B$11,INDEX(Tâches[],OFFSET(Tâches!$B6,ScrollingIncrement[incrément de défilement],0,1,1),2)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F8FBD7F0-C854-4F78-A244-B23F2FFF6E70}" name="Durée de la tâche en jours" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{F8FBD7F0-C854-4F78-A244-B23F2FFF6E70}" name="Durée de la tâche en jours" dataDxfId="12">
       <calculatedColumnFormula array="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,0,IF(AND(Tâches!$C6&lt;=$B$12,Tâches!$D6&gt;=$B$12),ABS(OFFSET(Tâches!$C6,ScrollingIncrement[incrément de défilement],0,1,1)-$B$12)+1,OFFSET(Tâches!$F6,ScrollingIncrement[incrément de défilement],0,1,1))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5A2DA5AB-D865-4B01-B889-2961800BAEFD}" name="position" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{5A2DA5AB-D865-4B01-B889-2961800BAEFD}" name="position" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,"",ROW($A1)),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3205,10 +3171,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{30441B7F-CD77-4D69-8E7E-DBBDDD14279F}" name="TodayHighlight" displayName="PointSaillantAujourdhui" ref="B3:C5">
   <autoFilter ref="B3:C5" xr:uid="{C74C9E73-4A4C-4834-9227-5225090C02B4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C38F7B9B-A971-4488-8015-29B0727A34E7}" name="coordonnée x de mise en surbrillance d’aujourd’hui" totalsRowLabel="Total" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{C38F7B9B-A971-4488-8015-29B0727A34E7}" name="coordonnée x de mise en surbrillance d’aujourd’hui" totalsRowLabel="Total" dataDxfId="10">
       <calculatedColumnFormula>IFERROR(IF(TODAY()&lt;MIN(DynamicTaskData[Date de début]),MIN($B$11,MIN(DynamicTaskData[Date de début])),TODAY()),TODAY())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0976B376-4D30-4099-AE10-A329AAD22F6E}" name="coordonnée y" totalsRowFunction="sum" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{0976B376-4D30-4099-AE10-A329AAD22F6E}" name="coordonnée y" totalsRowFunction="sum" dataDxfId="9">
       <calculatedColumnFormula>IFERROR(IF(Suivre_Aujourdhui="Oui",IF(TODAY()&lt;MIN(DynamicTaskData[Date de début]),0,9),0),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3229,13 +3195,13 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B32D10F3-8C97-4D87-8F09-C4C9DB7410B5}" name="Jalons" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{B32D10F3-8C97-4D87-8F09-C4C9DB7410B5}" name="Jalons" dataDxfId="8">
       <calculatedColumnFormula>IFERROR(IF(LEN(Jalons!D6)=0,"",IF(AND(Jalons!D6&lt;=$B$12,Jalons!D6&gt;=$B$11-$D$11),Jalons!E6,"")),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{08699A2C-FE9E-454E-85A5-61493B3B2502}" name="Date" dataDxfId="6" dataCellStyle="Date">
+    <tableColumn id="4" xr3:uid="{08699A2C-FE9E-454E-85A5-61493B3B2502}" name="Date" dataDxfId="7" dataCellStyle="Date">
       <calculatedColumnFormula>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,$B$12,Jalons!$D6),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FF95A456-DC6C-4DEF-A422-1A60C8530445}" name="Ligne de base" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{FF95A456-DC6C-4DEF-A422-1A60C8530445}" name="Ligne de base" dataDxfId="6">
       <calculatedColumnFormula>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",Jalons!$C6),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3244,12 +3210,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6206301-033F-458C-8270-AB1B58CF736C}" name="IncrémentDéfilement" displayName="ScrollingIncrement" ref="B7:B8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6206301-033F-458C-8270-AB1B58CF736C}" name="IncrémentDéfilement" displayName="ScrollingIncrement" ref="B7:B8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="B7:B8" xr:uid="{EF98147B-BF9A-4D76-A56A-BD910CB7D4BE}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F9A5A7B8-7EE1-4D44-B78F-710AFC7920AA}" name="incrément de défilement" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F9A5A7B8-7EE1-4D44-B78F-710AFC7920AA}" name="incrément de défilement" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Diagramme de Gantt de suivi des dates" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3261,10 +3227,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4FA05E03-B076-4E71-A71C-74071F60185C}" name="chartingRange" displayName="PlageTracé" ref="B10:B12" totalsRowShown="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4FA05E03-B076-4E71-A71C-74071F60185C}" name="chartingRange" displayName="PlageTracé" ref="B10:B12" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="B10:B12" xr:uid="{DDE82E12-4FE9-46D1-8EAA-6B89FFED0A50}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{1D49A440-6CFE-4E17-92DB-D396A59981B6}" name="Plage pour le traçage du diagramme" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{1D49A440-6CFE-4E17-92DB-D396A59981B6}" name="Plage pour le traçage du diagramme" dataDxfId="1">
       <calculatedColumnFormula>IFERROR(IF(LEN(#REF!)=0,Date_Fin+15,MIN(#REF!)+15),TODAY())</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3586,62 +3552,62 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.42578125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="80.44140625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="285" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
@@ -3663,18 +3629,20 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A11" sqref="A6:XFD11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -3682,7 +3650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
@@ -3693,7 +3661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -3702,7 +3670,7 @@
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
@@ -3719,7 +3687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
@@ -3736,143 +3704,83 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="23">
-        <f ca="1">Date_Début+10</f>
-        <v>45673</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23">
-        <f ca="1">TODAY()+25</f>
-        <v>45688</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23">
-        <f ca="1">TODAY()+35</f>
-        <v>45698</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="23">
-        <f ca="1">TODAY()+45</f>
-        <v>45708</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="23">
-        <f ca="1">TODAY()+60</f>
-        <v>45723</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23">
-        <f ca="1">TODAY()+70</f>
-        <v>45733</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="23"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="23"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="23"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="23"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>16</v>
       </c>
@@ -3883,7 +3791,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>17</v>
       </c>
@@ -3911,73 +3819,73 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="110.4" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>1</v>
       </c>
@@ -3988,14 +3896,14 @@
         <v>45663</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F6" s="11">
         <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -4003,17 +3911,17 @@
         <v>45664</v>
       </c>
       <c r="D7" s="23">
-        <v>45664</v>
+        <v>45670</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F7" s="11">
         <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>3</v>
       </c>
@@ -4021,192 +3929,163 @@
         <v>45670</v>
       </c>
       <c r="D8" s="23">
-        <v>45670</v>
+        <v>45672</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F8" s="11">
         <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>4</v>
       </c>
       <c r="C9" s="24">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="D9" s="23">
-        <v>45663</v>
+        <v>45687</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F9" s="11">
         <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>5</v>
       </c>
       <c r="C10" s="23">
-        <f ca="1">TODAY()+8</f>
-        <v>45671</v>
-      </c>
-      <c r="D10" s="23"/>
+        <v>45688</v>
+      </c>
+      <c r="D10" s="23">
+        <v>45700</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F10" s="11">
-        <f ca="1">IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>-45670</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>6</v>
       </c>
       <c r="C11" s="23">
-        <f ca="1">TODAY()+12</f>
-        <v>45675</v>
+        <v>45701</v>
       </c>
       <c r="D11" s="23">
-        <f ca="1">Tâches[[#This Row],[Date de début]]+30</f>
         <v>45705</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F11" s="11">
-        <f ca="1">IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="23">
-        <f ca="1">TODAY()+15</f>
-        <v>45678</v>
+        <v>45706</v>
       </c>
       <c r="D12" s="23">
-        <f ca="1">Tâches[[#This Row],[Date de début]]+15</f>
-        <v>45693</v>
+        <v>45706</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F12" s="11">
-        <f ca="1">IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="23">
-        <f ca="1">TODAY()+25</f>
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="D13" s="23">
-        <f ca="1">Tâches[[#This Row],[Date de début]]+5</f>
-        <v>45693</v>
+        <v>45707</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F13" s="11">
-        <f ca="1">IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="23">
-        <f ca="1">TODAY()+34</f>
-        <v>45697</v>
+        <v>45708</v>
       </c>
       <c r="D14" s="23">
-        <f ca="1">Tâches[[#This Row],[Date de début]]+2</f>
-        <v>45699</v>
+        <v>45708</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F14" s="11">
-        <f ca="1">IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="23">
-        <f ca="1">TODAY()+40</f>
-        <v>45703</v>
+        <v>45712</v>
       </c>
       <c r="D15" s="23">
-        <f ca="1">Tâches[[#This Row],[Date de début]]+30</f>
-        <v>45733</v>
+        <v>45712</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F15" s="11">
-        <f ca="1">IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>11</v>
-      </c>
-      <c r="C16" s="23">
-        <f ca="1">TODAY()+42</f>
-        <v>45705</v>
-      </c>
-      <c r="D16" s="23">
-        <f ca="1">Tâches[[#This Row],[Date de début]]+23</f>
-        <v>45728</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="11">
-        <f ca="1">IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>12</v>
-      </c>
-      <c r="C17" s="23">
-        <f ca="1">TODAY()+50</f>
-        <v>45713</v>
-      </c>
-      <c r="D17" s="23">
-        <f ca="1">Tâches[[#This Row],[Date de début]]+5</f>
-        <v>45718</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="11">
-        <f ca="1">IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="11" t="str">
+        <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="11" t="str">
+        <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -4216,7 +4095,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -4226,7 +4105,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -4236,7 +4115,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -4246,7 +4125,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -4256,7 +4135,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -4266,33 +4145,13 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="11" t="str">
-        <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="11" t="str">
-        <f>IFERROR(IF(LEN(Tâches[[#This Row],[Date de début]])=0,"",(INT(Tâches[[#This Row],[Date de fin]])-INT(Tâches[[#This Row],[Date de début]]))-(INT(Tâches[[#This Row],[Date de début]])-INT(Tâches[[#This Row],[Date de début]]))+1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4314,19 +4173,21 @@
   </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="14" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="14" width="6.6640625" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4346,11 +4207,11 @@
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
     </row>
-    <row r="2" spans="1:18" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:18" ht="162.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" ht="255.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:18" ht="162.44999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="C2:O2">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>#REF!&lt;=TODAY()+7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4373,98 +4234,98 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">IF(TODAY()&gt;=MIN(DynamicTaskData[Date de début]),"Aujourd’hui","")</f>
         <v>Aujourd’hui</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <f ca="1">IFERROR(IF(TODAY()&lt;MIN(DynamicTaskData[Date de début]),MIN($B$11,MIN(DynamicTaskData[Date de début])),TODAY()),TODAY())</f>
-        <v>45663</v>
+        <v>45678</v>
       </c>
       <c r="C4">
         <f ca="1">IFERROR(IF(Suivre_Aujourdhui="Oui",IF(TODAY()&lt;MIN(DynamicTaskData[Date de début]),0,9),0),0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <f ca="1">IFERROR(IF(TODAY()&lt;MIN(DynamicTaskData[Date de début]),MIN($B$11,MIN(DynamicTaskData[Date de début])),TODAY()),TODAY())</f>
-        <v>45663</v>
+        <v>45678</v>
       </c>
       <c r="C5">
         <f ca="1">IFERROR(IF(Suivre_Aujourdhui="Oui",IF(TODAY()&lt;MIN(DynamicTaskData[Date de début]),0,9),0),0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f ca="1">IFERROR(IF(ScrollingIncrement[incrément de défilement]=0,Date_Début,IF(ScrollingIncrement[incrément de défilement]*15&lt;Date_Fin,ScrollingIncrement[incrément de défilement]*15,Date_Fin-1)),"")</f>
         <v>45663</v>
@@ -4473,36 +4334,36 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <f ca="1">IFERROR(IF($B$11+15&lt;Date_Fin,$B$11+15,Date_Fin),"")</f>
         <v>45678</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="str">
         <f ca="1">IFERROR(IF(LEN(OFFSET(Tâches!$C6,ScrollingIncrement[incrément de défilement],0,1,1))=0,"",IF(OR(OFFSET(Tâches!$D6,ScrollingIncrement[incrément de défilement],0,1,1)&lt;=$B$12,OFFSET(Tâches!$C6,ScrollingIncrement[incrément de défilement],0,1,1)&gt;=($B$11-$D$11)),INDEX(Tâches[],OFFSET(Tâches!$B6,ScrollingIncrement[incrément de défilement],0,1,1),4),"")),"")</f>
-        <v>Activité 1</v>
+        <v>Création Groupe + Projet</v>
       </c>
       <c r="C15" s="22">
         <f ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,$B$11,INDEX(Tâches[],OFFSET(Tâches!$B6,ScrollingIncrement[incrément de défilement],0,1,1),2)),"")</f>
@@ -4517,10 +4378,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="str">
         <f ca="1">IFERROR(IF(LEN(OFFSET(Tâches!$C7,ScrollingIncrement[incrément de défilement],0,1,1))=0,"",IF(OR(OFFSET(Tâches!$D7,ScrollingIncrement[incrément de défilement],0,1,1)&lt;=$B$12,OFFSET(Tâches!$C7,ScrollingIncrement[incrément de défilement],0,1,1)&gt;=($B$11-$D$11)),INDEX(Tâches[],OFFSET(Tâches!$B7,ScrollingIncrement[incrément de défilement],0,1,1),4),"")),"")</f>
-        <v>Activité 2</v>
+        <v>UML</v>
       </c>
       <c r="C16" s="22">
         <f ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,$B$11,INDEX(Tâches[],OFFSET(Tâches!$B7,ScrollingIncrement[incrément de défilement],0,1,1),2)),"")</f>
@@ -4528,23 +4389,23 @@
       </c>
       <c r="D16" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,0,IF(AND(Tâches!$C7&lt;=$B$12,Tâches!$D7&gt;=$B$12),ABS(OFFSET(Tâches!$C7,ScrollingIncrement[incrément de défilement],0,1,1)-$B$12)+1,OFFSET(Tâches!$F7,ScrollingIncrement[incrément de défilement],0,1,1))),"")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <f ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,"",7),"")</f>
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="str">
         <f ca="1">IFERROR(IF(LEN(OFFSET(Tâches!$C8,ScrollingIncrement[incrément de défilement],0,1,1))=0,"",IF(OR(OFFSET(Tâches!$D8,ScrollingIncrement[incrément de défilement],0,1,1)&lt;=$B$12,OFFSET(Tâches!$C8,ScrollingIncrement[incrément de défilement],0,1,1)&gt;=($B$11-$D$11)),INDEX(Tâches[],OFFSET(Tâches!$B8,ScrollingIncrement[incrément de défilement],0,1,1),4),"")),"")</f>
-        <v>Activité 3</v>
+        <v>Cahier des charges</v>
       </c>
       <c r="C17" s="22">
         <f ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,$B$11,INDEX(Tâches[],OFFSET(Tâches!$B8,ScrollingIncrement[incrément de défilement],0,1,1),2)),"")</f>
@@ -4552,7 +4413,7 @@
       </c>
       <c r="D17" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,0,IF(AND(Tâches!$C8&lt;=$B$12,Tâches!$D8&gt;=$B$12),ABS(OFFSET(Tâches!$C8,ScrollingIncrement[incrément de défilement],0,1,1)-$B$12)+1,OFFSET(Tâches!$F8,ScrollingIncrement[incrément de défilement],0,1,1))),"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <f ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,"",6),"")</f>
@@ -4565,61 +4426,61 @@
         <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="str">
         <f ca="1">IFERROR(IF(LEN(OFFSET(Tâches!$C9,ScrollingIncrement[incrément de défilement],0,1,1))=0,"",IF(OR(OFFSET(Tâches!$D9,ScrollingIncrement[incrément de défilement],0,1,1)&lt;=$B$12,OFFSET(Tâches!$C9,ScrollingIncrement[incrément de défilement],0,1,1)&gt;=($B$11-$D$11)),INDEX(Tâches[],OFFSET(Tâches!$B9,ScrollingIncrement[incrément de défilement],0,1,1),4),"")),"")</f>
-        <v>Activité 4</v>
+        <v>Code de la première fenêtre</v>
       </c>
       <c r="C18" s="22">
         <f ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,$B$11,INDEX(Tâches[],OFFSET(Tâches!$B9,ScrollingIncrement[incrément de défilement],0,1,1),2)),"")</f>
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="D18" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,0,IF(AND(Tâches!$C9&lt;=$B$12,Tâches!$D9&gt;=$B$12),ABS(OFFSET(Tâches!$C9,ScrollingIncrement[incrément de défilement],0,1,1)-$B$12)+1,OFFSET(Tâches!$F9,ScrollingIncrement[incrément de défilement],0,1,1))),"")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <f ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,"",5),"")</f>
         <v>5</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons!D6)=0,"",IF(AND(Jalons!D6&lt;=$B$12,Jalons!D6&gt;=$B$11-$D$11),Jalons!E6,"")),"")</f>
-        <v>Jalon 1</v>
+        <f>IFERROR(IF(LEN(Jalons!D6)=0,"",IF(AND(Jalons!D6&lt;=$B$12,Jalons!D6&gt;=$B$11-$D$11),Jalons!E6,"")),"")</f>
+        <v/>
       </c>
       <c r="H18" s="23">
         <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,$B$12,Jalons!$D6),2)</f>
-        <v>45673</v>
-      </c>
-      <c r="I18">
-        <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",Jalons!$C6),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45678</v>
+      </c>
+      <c r="I18" t="str">
+        <f>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",Jalons!$C6),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="str">
         <f ca="1">IFERROR(IF(LEN(OFFSET(Tâches!$C10,ScrollingIncrement[incrément de défilement],0,1,1))=0,"",IF(OR(OFFSET(Tâches!$D10,ScrollingIncrement[incrément de défilement],0,1,1)&lt;=$B$12,OFFSET(Tâches!$C10,ScrollingIncrement[incrément de défilement],0,1,1)&gt;=($B$11-$D$11)),INDEX(Tâches[],OFFSET(Tâches!$B10,ScrollingIncrement[incrément de défilement],0,1,1),4),"")),"")</f>
-        <v>Activité 5</v>
+        <v>Code Questionnaire</v>
       </c>
       <c r="C19" s="22">
         <f ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,$B$11,INDEX(Tâches[],OFFSET(Tâches!$B10,ScrollingIncrement[incrément de défilement],0,1,1),2)),"")</f>
-        <v>45671</v>
+        <v>45688</v>
       </c>
       <c r="D19" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,0,IF(AND(Tâches!$C10&lt;=$B$12,Tâches!$D10&gt;=$B$12),ABS(OFFSET(Tâches!$C10,ScrollingIncrement[incrément de défilement],0,1,1)-$B$12)+1,OFFSET(Tâches!$F10,ScrollingIncrement[incrément de défilement],0,1,1))),"")</f>
-        <v>-45670</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <f ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,"",4),"")</f>
         <v>4</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons!D7)=0,"",IF(AND(Jalons!D7&lt;=$B$12,Jalons!D7&gt;=$B$11-$D$11),Jalons!E7,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons!D7)=0,"",IF(AND(Jalons!D7&lt;=$B$12,Jalons!D7&gt;=$B$11-$D$11),Jalons!E7,"")),"")</f>
         <v/>
       </c>
       <c r="H19" s="23">
@@ -4627,29 +4488,29 @@
         <v>45678</v>
       </c>
       <c r="I19" t="str">
-        <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",Jalons!$C7),"")</f>
+        <f>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",Jalons!$C7),"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="str">
         <f ca="1">IFERROR(IF(LEN(OFFSET(Tâches!$C11,ScrollingIncrement[incrément de défilement],0,1,1))=0,"",IF(OR(OFFSET(Tâches!$D11,ScrollingIncrement[incrément de défilement],0,1,1)&lt;=$B$12,OFFSET(Tâches!$C11,ScrollingIncrement[incrément de défilement],0,1,1)&gt;=($B$11-$D$11)),INDEX(Tâches[],OFFSET(Tâches!$B11,ScrollingIncrement[incrément de défilement],0,1,1),4),"")),"")</f>
-        <v>Activité 6</v>
+        <v>Ajout de la gestion XML</v>
       </c>
       <c r="C20" s="22">
         <f ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,$B$11,INDEX(Tâches[],OFFSET(Tâches!$B11,ScrollingIncrement[incrément de défilement],0,1,1),2)),"")</f>
-        <v>45675</v>
+        <v>45701</v>
       </c>
       <c r="D20" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,0,IF(AND(Tâches!$C11&lt;=$B$12,Tâches!$D11&gt;=$B$12),ABS(OFFSET(Tâches!$C11,ScrollingIncrement[incrément de défilement],0,1,1)-$B$12)+1,OFFSET(Tâches!$F11,ScrollingIncrement[incrément de défilement],0,1,1))),"")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <f ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,"",3),"")</f>
         <v>3</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons!D8)=0,"",IF(AND(Jalons!D8&lt;=$B$12,Jalons!D8&gt;=$B$11-$D$11),Jalons!E8,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons!D8)=0,"",IF(AND(Jalons!D8&lt;=$B$12,Jalons!D8&gt;=$B$11-$D$11),Jalons!E8,"")),"")</f>
         <v/>
       </c>
       <c r="H20" s="23">
@@ -4657,29 +4518,29 @@
         <v>45678</v>
       </c>
       <c r="I20" t="str">
-        <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",Jalons!$C8),"")</f>
+        <f>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",Jalons!$C8),"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="str">
-        <f ca="1">IFERROR(IF(LEN(OFFSET(Tâches!$C12,ScrollingIncrement[incrément de défilement],0,1,1))=0,"",IF(OR(OFFSET(Tâches!$D12,ScrollingIncrement[incrément de défilement],0,1,1)&lt;=$B$12,OFFSET(Tâches!$C12,ScrollingIncrement[incrément de défilement],0,1,1)&gt;=($B$11-$D$11)),INDEX(Tâches[],OFFSET(Tâches!$B12,ScrollingIncrement[incrément de défilement],0,1,1),4),"")),"")</f>
-        <v>Activité 7</v>
+        <f ca="1">IFERROR(IF(LEN(OFFSET(Tâches!#REF!,ScrollingIncrement[incrément de défilement],0,1,1))=0,"",IF(OR(OFFSET(Tâches!#REF!,ScrollingIncrement[incrément de défilement],0,1,1)&lt;=$B$12,OFFSET(Tâches!#REF!,ScrollingIncrement[incrément de défilement],0,1,1)&gt;=($B$11-$D$11)),INDEX(Tâches[],OFFSET(Tâches!#REF!,ScrollingIncrement[incrément de défilement],0,1,1),4),"")),"")</f>
+        <v/>
       </c>
       <c r="C21" s="22">
-        <f ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,$B$11,INDEX(Tâches[],OFFSET(Tâches!$B12,ScrollingIncrement[incrément de défilement],0,1,1),2)),"")</f>
-        <v>45678</v>
+        <f ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,$B$11,INDEX(Tâches[],OFFSET(Tâches!#REF!,ScrollingIncrement[incrément de défilement],0,1,1),2)),"")</f>
+        <v>45663</v>
       </c>
       <c r="D21" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,0,IF(AND(Tâches!$C12&lt;=$B$12,Tâches!$D12&gt;=$B$12),ABS(OFFSET(Tâches!$C12,ScrollingIncrement[incrément de défilement],0,1,1)-$B$12)+1,OFFSET(Tâches!$F12,ScrollingIncrement[incrément de défilement],0,1,1))),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E21">
+        <f t="array" aca="1" ref="D21" ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,0,IF(AND(Tâches!#REF!&lt;=$B$12,Tâches!#REF!&gt;=$B$12),ABS(OFFSET(Tâches!#REF!,ScrollingIncrement[incrément de défilement],0,1,1)-$B$12)+1,OFFSET(Tâches!#REF!,ScrollingIncrement[incrément de défilement],0,1,1))),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
         <f ca="1">IFERROR(IF(LEN(DynamicTaskData[[#This Row],[Tâches]])=0,"",2),"")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="G21" s="1" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons!D9)=0,"",IF(AND(Jalons!D9&lt;=$B$12,Jalons!D9&gt;=$B$11-$D$11),Jalons!E9,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons!D9)=0,"",IF(AND(Jalons!D9&lt;=$B$12,Jalons!D9&gt;=$B$11-$D$11),Jalons!E9,"")),"")</f>
         <v/>
       </c>
       <c r="H21" s="23">
@@ -4687,13 +4548,13 @@
         <v>45678</v>
       </c>
       <c r="I21" t="str">
-        <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",Jalons!$C9),"")</f>
+        <f>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",Jalons!$C9),"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G22" s="1" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons!D10)=0,"",IF(AND(Jalons!D10&lt;=$B$12,Jalons!D10&gt;=$B$11-$D$11),Jalons!E10,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons!D10)=0,"",IF(AND(Jalons!D10&lt;=$B$12,Jalons!D10&gt;=$B$11-$D$11),Jalons!E10,"")),"")</f>
         <v/>
       </c>
       <c r="H22" s="23">
@@ -4701,13 +4562,13 @@
         <v>45678</v>
       </c>
       <c r="I22" t="str">
-        <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",Jalons!$C10),"")</f>
+        <f>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",Jalons!$C10),"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G23" s="1" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons!D11)=0,"",IF(AND(Jalons!D11&lt;=$B$12,Jalons!D11&gt;=$B$11-$D$11),Jalons!E11,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons!D11)=0,"",IF(AND(Jalons!D11&lt;=$B$12,Jalons!D11&gt;=$B$11-$D$11),Jalons!E11,"")),"")</f>
         <v/>
       </c>
       <c r="H23" s="23">
@@ -4715,11 +4576,11 @@
         <v>45678</v>
       </c>
       <c r="I23" t="str">
-        <f ca="1">IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",Jalons!$C11),"")</f>
+        <f>IFERROR(IF(LEN(DonnéesJalonDynamiques[[#This Row],[Jalons]])=0,"",Jalons!$C11),"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G24" s="1" t="str">
         <f>IFERROR(IF(LEN(Jalons!D12)=0,"",IF(AND(Jalons!D12&lt;=$B$12,Jalons!D12&gt;=$B$11-$D$11),Jalons!E12,"")),"")</f>
         <v/>
@@ -4733,7 +4594,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G25" s="1" t="str">
         <f>IFERROR(IF(LEN(Jalons!D13)=0,"",IF(AND(Jalons!D13&lt;=$B$12,Jalons!D13&gt;=$B$11-$D$11),Jalons!E13,"")),"")</f>
         <v/>
@@ -4747,7 +4608,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G26" s="1" t="str">
         <f>IFERROR(IF(LEN(Jalons!D14)=0,"",IF(AND(Jalons!D14&lt;=$B$12,Jalons!D14&gt;=$B$11-$D$11),Jalons!E14,"")),"")</f>
         <v/>
@@ -4761,7 +4622,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G27" s="1" t="str">
         <f>IFERROR(IF(LEN(Jalons!D15)=0,"",IF(AND(Jalons!D15&lt;=$B$12,Jalons!D15&gt;=$B$11-$D$11),Jalons!E15,"")),"")</f>
         <v/>
@@ -4775,7 +4636,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G28" s="1" t="str">
         <f>IFERROR(IF(LEN(Jalons!D16)=0,"",IF(AND(Jalons!D16&lt;=$B$12,Jalons!D16&gt;=$B$11-$D$11),Jalons!E16,"")),"")</f>
         <v/>
@@ -4789,7 +4650,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G29" s="1" t="str">
         <f>IFERROR(IF(LEN(Jalons!D17)=0,"",IF(AND(Jalons!D17&lt;=$B$12,Jalons!D17&gt;=$B$11-$D$11),Jalons!E17,"")),"")</f>
         <v/>
@@ -4803,7 +4664,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G30" s="1" t="str">
         <f>IFERROR(IF(LEN(Jalons!D18)=0,"",IF(AND(Jalons!D18&lt;=$B$12,Jalons!D18&gt;=$B$11-$D$11),Jalons!E18,"")),"")</f>
         <v/>
@@ -4817,7 +4678,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G31" s="1" t="str">
         <f>IFERROR(IF(LEN(Jalons!D19)=0,"",IF(AND(Jalons!D19&lt;=$B$12,Jalons!D19&gt;=$B$11-$D$11),Jalons!E19,"")),"")</f>
         <v/>
@@ -4831,9 +4692,9 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G32" s="1" t="str">
         <f>IFERROR(IF(LEN(Jalons!D20)=0,"",IF(AND(Jalons!D20&lt;=$B$12,Jalons!D20&gt;=$B$11-$D$11),Jalons!E20,"")),"")</f>
@@ -4848,7 +4709,7 @@
         <v/>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4873,6 +4734,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5184,36 +5074,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDF417C6-B3F7-4801-B644-8A675B87291C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B8C2C39-6C63-4DAC-A581-642896D508D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E409AAC-1DBD-40ED-8B52-D43EC16B402C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5234,26 +5115,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B8C2C39-6C63-4DAC-A581-642896D508D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDF417C6-B3F7-4801-B644-8A675B87291C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>